--- a/data/manual_processing/manual_extraction/completed/Manual_extraction_all_2.xlsx
+++ b/data/manual_processing/manual_extraction/completed/Manual_extraction_all_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roxanna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithj/OneDrive - Nexus365/Post-doc Oxford/Research/Coronavirus/Pandemic Research Exceptionalism/R/COVID-trial-characteristics/data/manual_processing/manual_extraction/completed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82845818-B580-B947-978D-EC2CD3310E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282858F-07F7-A64D-BF8F-9BB2C432A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="340" windowWidth="23320" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual_extraction_2" sheetId="1" r:id="rId1"/>
@@ -6390,7 +6390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6528,6 +6528,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6720,7 +6727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -6835,6 +6842,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6880,7 +6898,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -6898,6 +6916,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7419,8 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B285" workbookViewId="0">
-      <selection activeCell="J304" sqref="J304"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7449,7 +7470,7 @@
     <col min="23" max="23" width="14.5" style="3" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" style="3" customWidth="1"/>
     <col min="25" max="25" width="24.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="3"/>
+    <col min="26" max="26" width="10.83203125" style="3" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" style="3" customWidth="1"/>
     <col min="28" max="29" width="11.1640625" style="3" customWidth="1"/>
     <col min="30" max="30" width="11.1640625" style="1" customWidth="1"/>
@@ -27443,19 +27464,19 @@
         <v>35</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="R225" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="S225" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T225" s="2">
         <v>42461</v>
@@ -29576,22 +29597,22 @@
         <v>49</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="R249" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="S249" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T249" s="2">
         <v>43891</v>
@@ -31000,22 +31021,22 @@
         <v>57</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Q265" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="R265" s="1" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="S265" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T265" s="2">
         <v>43949</v>
@@ -31444,23 +31465,23 @@
       <c r="M270" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N270" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O270" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="P270" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q270" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="R270" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="S270" s="1" t="s">
-        <v>379</v>
+      <c r="N270" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O270" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P270" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q270" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R270" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S270" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="T270" s="2">
         <v>44166</v>
@@ -31534,22 +31555,22 @@
         <v>57</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="O271" s="1" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="S271" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T271" s="2">
         <v>44166</v>
@@ -31979,22 +32000,22 @@
         <v>57</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Q276" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="R276" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="S276" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T276" s="2">
         <v>44013</v>
@@ -34521,7 +34542,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="E1:F1048576 H1:K1048576 M1:S1048576">
+  <conditionalFormatting sqref="E1:F1048576 H1:K1048576 M1:S269 M270 M271:S1048576">
     <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
@@ -34538,7 +34559,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 J1:J1048576 N1:S1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 J1:J1048576 N1:S269 N271:S1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Yes,No,Unreported"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
